--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.0796195898071</v>
+        <v>55.2535725</v>
       </c>
       <c r="H2">
-        <v>55.0796195898071</v>
+        <v>110.507145</v>
       </c>
       <c r="I2">
-        <v>0.6220290168273116</v>
+        <v>0.6201844899444644</v>
       </c>
       <c r="J2">
-        <v>0.6220290168273116</v>
+        <v>0.5242244663345057</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.5874181399488</v>
+        <v>18.587999</v>
       </c>
       <c r="N2">
-        <v>18.5874181399488</v>
+        <v>37.175998</v>
       </c>
       <c r="O2">
-        <v>0.6382529077469019</v>
+        <v>0.6310824130028787</v>
       </c>
       <c r="P2">
-        <v>0.6382529077469019</v>
+        <v>0.5343109468829552</v>
       </c>
       <c r="Q2">
-        <v>1023.78792030506</v>
+        <v>1027.053350376427</v>
       </c>
       <c r="R2">
-        <v>1023.78792030506</v>
+        <v>4108.21340150571</v>
       </c>
       <c r="S2">
-        <v>0.3970118286929782</v>
+        <v>0.3913875244211121</v>
       </c>
       <c r="T2">
-        <v>0.3970118286929782</v>
+        <v>0.2800988709864016</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.0796195898071</v>
+        <v>55.2535725</v>
       </c>
       <c r="H3">
-        <v>55.0796195898071</v>
+        <v>110.507145</v>
       </c>
       <c r="I3">
-        <v>0.6220290168273116</v>
+        <v>0.6201844899444644</v>
       </c>
       <c r="J3">
-        <v>0.6220290168273116</v>
+        <v>0.5242244663345057</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.577392036348175</v>
+        <v>0.6343679999999999</v>
       </c>
       <c r="N3">
-        <v>0.577392036348175</v>
+        <v>1.903104</v>
       </c>
       <c r="O3">
-        <v>0.01982643007944635</v>
+        <v>0.02153747093335921</v>
       </c>
       <c r="P3">
-        <v>0.01982643007944635</v>
+        <v>0.02735230672910892</v>
       </c>
       <c r="Q3">
-        <v>31.80253371624156</v>
+        <v>35.05109827968</v>
       </c>
       <c r="R3">
-        <v>31.80253371624156</v>
+        <v>210.30658967808</v>
       </c>
       <c r="S3">
-        <v>0.01233261480951345</v>
+        <v>0.01335720542549911</v>
       </c>
       <c r="T3">
-        <v>0.01233261480951345</v>
+        <v>0.01433874839808483</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.0796195898071</v>
+        <v>55.2535725</v>
       </c>
       <c r="H4">
-        <v>55.0796195898071</v>
+        <v>110.507145</v>
       </c>
       <c r="I4">
-        <v>0.6220290168273116</v>
+        <v>0.6201844899444644</v>
       </c>
       <c r="J4">
-        <v>0.6220290168273116</v>
+        <v>0.5242244663345057</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.764236142127739</v>
+        <v>10.03478166666667</v>
       </c>
       <c r="N4">
-        <v>9.764236142127739</v>
+        <v>30.104345</v>
       </c>
       <c r="O4">
-        <v>0.335283365485078</v>
+        <v>0.3406915520146654</v>
       </c>
       <c r="P4">
-        <v>0.335283365485078</v>
+        <v>0.4326738204107166</v>
       </c>
       <c r="Q4">
-        <v>537.8104122934416</v>
+        <v>554.4575363408376</v>
       </c>
       <c r="R4">
-        <v>537.8104122934416</v>
+        <v>3326.745218045025</v>
       </c>
       <c r="S4">
-        <v>0.2085559821912352</v>
+        <v>0.2112916164146033</v>
       </c>
       <c r="T4">
-        <v>0.2085559821912352</v>
+        <v>0.2268182026017197</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.0796195898071</v>
+        <v>55.2535725</v>
       </c>
       <c r="H5">
-        <v>55.0796195898071</v>
+        <v>110.507145</v>
       </c>
       <c r="I5">
-        <v>0.6220290168273116</v>
+        <v>0.6201844899444644</v>
       </c>
       <c r="J5">
-        <v>0.6220290168273116</v>
+        <v>0.5242244663345057</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.193293610372925</v>
+        <v>0.197006</v>
       </c>
       <c r="N5">
-        <v>0.193293610372925</v>
+        <v>0.394012</v>
       </c>
       <c r="O5">
-        <v>0.006637296688573658</v>
+        <v>0.006688564049096684</v>
       </c>
       <c r="P5">
-        <v>0.006637296688573658</v>
+        <v>0.005662925977219145</v>
       </c>
       <c r="Q5">
-        <v>10.6465385284811</v>
+        <v>10.885285303935</v>
       </c>
       <c r="R5">
-        <v>10.6465385284811</v>
+        <v>43.54114121574001</v>
       </c>
       <c r="S5">
-        <v>0.004128591133584643</v>
+        <v>0.004148143683249909</v>
       </c>
       <c r="T5">
-        <v>0.004128591133584643</v>
+        <v>0.002968644348299515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.804712976865004</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H6">
-        <v>0.804712976865004</v>
+        <v>2.526643</v>
       </c>
       <c r="I6">
-        <v>0.009087840939267289</v>
+        <v>0.00945329402442259</v>
       </c>
       <c r="J6">
-        <v>0.009087840939267289</v>
+        <v>0.0119859044253909</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.5874181399488</v>
+        <v>18.587999</v>
       </c>
       <c r="N6">
-        <v>18.5874181399488</v>
+        <v>37.175998</v>
       </c>
       <c r="O6">
-        <v>0.6382529077469019</v>
+        <v>0.6310824130028787</v>
       </c>
       <c r="P6">
-        <v>0.6382529077469019</v>
+        <v>0.5343109468829552</v>
       </c>
       <c r="Q6">
-        <v>14.95753658363277</v>
+        <v>15.65507918578567</v>
       </c>
       <c r="R6">
-        <v>14.95753658363277</v>
+        <v>93.930475114714</v>
       </c>
       <c r="S6">
-        <v>0.005800340904628683</v>
+        <v>0.005965807603758302</v>
       </c>
       <c r="T6">
-        <v>0.005800340904628683</v>
+        <v>0.006404199942779217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.804712976865004</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H7">
-        <v>0.804712976865004</v>
+        <v>2.526643</v>
       </c>
       <c r="I7">
-        <v>0.009087840939267289</v>
+        <v>0.00945329402442259</v>
       </c>
       <c r="J7">
-        <v>0.009087840939267289</v>
+        <v>0.0119859044253909</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.577392036348175</v>
+        <v>0.6343679999999999</v>
       </c>
       <c r="N7">
-        <v>0.577392036348175</v>
+        <v>1.903104</v>
       </c>
       <c r="O7">
-        <v>0.01982643007944635</v>
+        <v>0.02153747093335921</v>
       </c>
       <c r="P7">
-        <v>0.01982643007944635</v>
+        <v>0.02735230672910892</v>
       </c>
       <c r="Q7">
-        <v>0.4646348643878865</v>
+        <v>0.5342738222079999</v>
       </c>
       <c r="R7">
-        <v>0.4646348643878865</v>
+        <v>4.808464399871999</v>
       </c>
       <c r="S7">
-        <v>0.000180179442955513</v>
+        <v>0.0002036000452754999</v>
       </c>
       <c r="T7">
-        <v>0.000180179442955513</v>
+        <v>0.000327842134269076</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.804712976865004</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H8">
-        <v>0.804712976865004</v>
+        <v>2.526643</v>
       </c>
       <c r="I8">
-        <v>0.009087840939267289</v>
+        <v>0.00945329402442259</v>
       </c>
       <c r="J8">
-        <v>0.009087840939267289</v>
+        <v>0.0119859044253909</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.764236142127739</v>
+        <v>10.03478166666667</v>
       </c>
       <c r="N8">
-        <v>9.764236142127739</v>
+        <v>30.104345</v>
       </c>
       <c r="O8">
-        <v>0.335283365485078</v>
+        <v>0.3406915520146654</v>
       </c>
       <c r="P8">
-        <v>0.335283365485078</v>
+        <v>0.4326738204107166</v>
       </c>
       <c r="Q8">
-        <v>7.857407532744475</v>
+        <v>8.451436951537222</v>
       </c>
       <c r="R8">
-        <v>7.857407532744475</v>
+        <v>76.06293256383501</v>
       </c>
       <c r="S8">
-        <v>0.003047001895110609</v>
+        <v>0.003220657412831495</v>
       </c>
       <c r="T8">
-        <v>0.003047001895110609</v>
+        <v>0.005185987058811597</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.804712976865004</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H9">
-        <v>0.804712976865004</v>
+        <v>2.526643</v>
       </c>
       <c r="I9">
-        <v>0.009087840939267289</v>
+        <v>0.00945329402442259</v>
       </c>
       <c r="J9">
-        <v>0.009087840939267289</v>
+        <v>0.0119859044253909</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.193293610372925</v>
+        <v>0.197006</v>
       </c>
       <c r="N9">
-        <v>0.193293610372925</v>
+        <v>0.394012</v>
       </c>
       <c r="O9">
-        <v>0.006637296688573658</v>
+        <v>0.006688564049096684</v>
       </c>
       <c r="P9">
-        <v>0.006637296688573658</v>
+        <v>0.005662925977219145</v>
       </c>
       <c r="Q9">
-        <v>0.1555458766121807</v>
+        <v>0.1659212769526667</v>
       </c>
       <c r="R9">
-        <v>0.1555458766121807</v>
+        <v>0.995527661716</v>
       </c>
       <c r="S9">
-        <v>6.03186965724829E-05</v>
+        <v>6.322896255729345E-05</v>
       </c>
       <c r="T9">
-        <v>6.03186965724829E-05</v>
+        <v>6.787528953101206E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1033,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>31.4525124146766</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H10">
-        <v>31.4525124146766</v>
+        <v>0.151144</v>
       </c>
       <c r="I10">
-        <v>0.3552017156209741</v>
+        <v>0.0005654968557201504</v>
       </c>
       <c r="J10">
-        <v>0.3552017156209741</v>
+        <v>0.0007169978261556075</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.5874181399488</v>
+        <v>18.587999</v>
       </c>
       <c r="N10">
-        <v>18.5874181399488</v>
+        <v>37.175998</v>
       </c>
       <c r="O10">
-        <v>0.6382529077469019</v>
+        <v>0.6310824130028787</v>
       </c>
       <c r="P10">
-        <v>0.6382529077469019</v>
+        <v>0.5343109468829552</v>
       </c>
       <c r="Q10">
-        <v>584.6209998035247</v>
+        <v>0.9364881736186667</v>
       </c>
       <c r="R10">
-        <v>584.6209998035247</v>
+        <v>5.618929041712</v>
       </c>
       <c r="S10">
-        <v>0.2267085278317749</v>
+        <v>0.0003568751202534133</v>
       </c>
       <c r="T10">
-        <v>0.2267085278317749</v>
+        <v>0.0003830997874062231</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1083,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1095,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>31.4525124146766</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H11">
-        <v>31.4525124146766</v>
+        <v>0.151144</v>
       </c>
       <c r="I11">
-        <v>0.3552017156209741</v>
+        <v>0.0005654968557201504</v>
       </c>
       <c r="J11">
-        <v>0.3552017156209741</v>
+        <v>0.0007169978261556075</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.577392036348175</v>
+        <v>0.6343679999999999</v>
       </c>
       <c r="N11">
-        <v>0.577392036348175</v>
+        <v>1.903104</v>
       </c>
       <c r="O11">
-        <v>0.01982643007944635</v>
+        <v>0.02153747093335921</v>
       </c>
       <c r="P11">
-        <v>0.01982643007944635</v>
+        <v>0.02735230672910892</v>
       </c>
       <c r="Q11">
-        <v>18.16043019137638</v>
+        <v>0.031960305664</v>
       </c>
       <c r="R11">
-        <v>18.16043019137638</v>
+        <v>0.287642750976</v>
       </c>
       <c r="S11">
-        <v>0.007042381978858631</v>
+        <v>1.217937209297877E-05</v>
       </c>
       <c r="T11">
-        <v>0.007042381978858631</v>
+        <v>1.961154446511249E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>31.4525124146766</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H12">
-        <v>31.4525124146766</v>
+        <v>0.151144</v>
       </c>
       <c r="I12">
-        <v>0.3552017156209741</v>
+        <v>0.0005654968557201504</v>
       </c>
       <c r="J12">
-        <v>0.3552017156209741</v>
+        <v>0.0007169978261556075</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.764236142127739</v>
+        <v>10.03478166666667</v>
       </c>
       <c r="N12">
-        <v>9.764236142127739</v>
+        <v>30.104345</v>
       </c>
       <c r="O12">
-        <v>0.335283365485078</v>
+        <v>0.3406915520146654</v>
       </c>
       <c r="P12">
-        <v>0.335283365485078</v>
+        <v>0.4326738204107166</v>
       </c>
       <c r="Q12">
-        <v>307.1097584801067</v>
+        <v>0.5055656800755556</v>
       </c>
       <c r="R12">
-        <v>307.1097584801067</v>
+        <v>4.55009112068</v>
       </c>
       <c r="S12">
-        <v>0.1190932266394738</v>
+        <v>0.0001926600014347114</v>
       </c>
       <c r="T12">
-        <v>0.1190932266394738</v>
+        <v>0.0003102261886689255</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>31.4525124146766</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H13">
-        <v>31.4525124146766</v>
+        <v>0.151144</v>
       </c>
       <c r="I13">
-        <v>0.3552017156209741</v>
+        <v>0.0005654968557201504</v>
       </c>
       <c r="J13">
-        <v>0.3552017156209741</v>
+        <v>0.0007169978261556075</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.193293610372925</v>
+        <v>0.197006</v>
       </c>
       <c r="N13">
-        <v>0.193293610372925</v>
+        <v>0.394012</v>
       </c>
       <c r="O13">
-        <v>0.006637296688573658</v>
+        <v>0.006688564049096684</v>
       </c>
       <c r="P13">
-        <v>0.006637296688573658</v>
+        <v>0.005662925977219145</v>
       </c>
       <c r="Q13">
-        <v>6.079569679932085</v>
+        <v>0.009925424954666667</v>
       </c>
       <c r="R13">
-        <v>6.079569679932085</v>
+        <v>0.059552549728</v>
       </c>
       <c r="S13">
-        <v>0.002357579170866774</v>
+        <v>3.782361939047013E-06</v>
       </c>
       <c r="T13">
-        <v>0.002357579170866774</v>
+        <v>4.060305615346246E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1266,61 +1269,61 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.21146723524741</v>
+        <v>31.724292</v>
       </c>
       <c r="H14">
-        <v>1.21146723524741</v>
+        <v>95.172876</v>
       </c>
       <c r="I14">
-        <v>0.01368142661244707</v>
+        <v>0.3560840134430991</v>
       </c>
       <c r="J14">
-        <v>0.01368142661244707</v>
+        <v>0.4514816678199412</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.5874181399488</v>
+        <v>18.587999</v>
       </c>
       <c r="N14">
-        <v>18.5874181399488</v>
+        <v>37.175998</v>
       </c>
       <c r="O14">
-        <v>0.6382529077469019</v>
+        <v>0.6310824130028787</v>
       </c>
       <c r="P14">
-        <v>0.6382529077469019</v>
+        <v>0.5343109468829552</v>
       </c>
       <c r="Q14">
-        <v>22.51804806439133</v>
+        <v>589.691107971708</v>
       </c>
       <c r="R14">
-        <v>22.51804806439133</v>
+        <v>3538.146647830248</v>
       </c>
       <c r="S14">
-        <v>0.008732210317520188</v>
+        <v>0.2247183584354205</v>
       </c>
       <c r="T14">
-        <v>0.008732210317520188</v>
+        <v>0.2412315974331686</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1328,61 +1331,61 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.21146723524741</v>
+        <v>31.724292</v>
       </c>
       <c r="H15">
-        <v>1.21146723524741</v>
+        <v>95.172876</v>
       </c>
       <c r="I15">
-        <v>0.01368142661244707</v>
+        <v>0.3560840134430991</v>
       </c>
       <c r="J15">
-        <v>0.01368142661244707</v>
+        <v>0.4514816678199412</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.577392036348175</v>
+        <v>0.6343679999999999</v>
       </c>
       <c r="N15">
-        <v>0.577392036348175</v>
+        <v>1.903104</v>
       </c>
       <c r="O15">
-        <v>0.01982643007944635</v>
+        <v>0.02153747093335921</v>
       </c>
       <c r="P15">
-        <v>0.01982643007944635</v>
+        <v>0.02735230672910892</v>
       </c>
       <c r="Q15">
-        <v>0.6994915339285958</v>
+        <v>20.124875667456</v>
       </c>
       <c r="R15">
-        <v>0.6994915339285958</v>
+        <v>181.123881007104</v>
       </c>
       <c r="S15">
-        <v>0.0002712538481187584</v>
+        <v>0.007669149089364639</v>
       </c>
       <c r="T15">
-        <v>0.0002712538481187584</v>
+        <v>0.01234906506078069</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1390,61 +1393,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.21146723524741</v>
+        <v>31.724292</v>
       </c>
       <c r="H16">
-        <v>1.21146723524741</v>
+        <v>95.172876</v>
       </c>
       <c r="I16">
-        <v>0.01368142661244707</v>
+        <v>0.3560840134430991</v>
       </c>
       <c r="J16">
-        <v>0.01368142661244707</v>
+        <v>0.4514816678199412</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.764236142127739</v>
+        <v>10.03478166666667</v>
       </c>
       <c r="N16">
-        <v>9.764236142127739</v>
+        <v>30.104345</v>
       </c>
       <c r="O16">
-        <v>0.335283365485078</v>
+        <v>0.3406915520146654</v>
       </c>
       <c r="P16">
-        <v>0.335283365485078</v>
+        <v>0.4326738204107166</v>
       </c>
       <c r="Q16">
-        <v>11.82905216340633</v>
+        <v>318.3463437495801</v>
       </c>
       <c r="R16">
-        <v>11.82905216340633</v>
+        <v>2865.11709374622</v>
       </c>
       <c r="S16">
-        <v>0.004587154759258363</v>
+        <v>0.1213148151875404</v>
       </c>
       <c r="T16">
-        <v>0.004587154759258363</v>
+        <v>0.195344298061056</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1452,61 +1455,309 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>31.724292</v>
+      </c>
+      <c r="H17">
+        <v>95.172876</v>
+      </c>
+      <c r="I17">
+        <v>0.3560840134430991</v>
+      </c>
+      <c r="J17">
+        <v>0.4514816678199412</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.197006</v>
+      </c>
+      <c r="N17">
+        <v>0.394012</v>
+      </c>
+      <c r="O17">
+        <v>0.006688564049096684</v>
+      </c>
+      <c r="P17">
+        <v>0.005662925977219145</v>
+      </c>
+      <c r="Q17">
+        <v>6.249875869752</v>
+      </c>
+      <c r="R17">
+        <v>37.499255218512</v>
+      </c>
+      <c r="S17">
+        <v>0.002381690730773573</v>
+      </c>
+      <c r="T17">
+        <v>0.00255670726493577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.2216945</v>
+      </c>
+      <c r="H18">
+        <v>2.443389</v>
+      </c>
+      <c r="I18">
+        <v>0.01371270573229373</v>
+      </c>
+      <c r="J18">
+        <v>0.01159096359400653</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>18.587999</v>
+      </c>
+      <c r="N18">
+        <v>37.175998</v>
+      </c>
+      <c r="O18">
+        <v>0.6310824130028787</v>
+      </c>
+      <c r="P18">
+        <v>0.5343109468829552</v>
+      </c>
+      <c r="Q18">
+        <v>22.7088561443055</v>
+      </c>
+      <c r="R18">
+        <v>90.835424577222</v>
+      </c>
+      <c r="S18">
+        <v>0.008653847422334335</v>
+      </c>
+      <c r="T18">
+        <v>0.006193178733199493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.2216945</v>
+      </c>
+      <c r="H19">
+        <v>2.443389</v>
+      </c>
+      <c r="I19">
+        <v>0.01371270573229373</v>
+      </c>
+      <c r="J19">
+        <v>0.01159096359400653</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6343679999999999</v>
+      </c>
+      <c r="N19">
+        <v>1.903104</v>
+      </c>
+      <c r="O19">
+        <v>0.02153747093335921</v>
+      </c>
+      <c r="P19">
+        <v>0.02735230672910892</v>
+      </c>
+      <c r="Q19">
+        <v>0.7750038965759999</v>
+      </c>
+      <c r="R19">
+        <v>4.650023379455999</v>
+      </c>
+      <c r="S19">
+        <v>0.0002953370011269845</v>
+      </c>
+      <c r="T19">
+        <v>0.0003170395915092014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.21146723524741</v>
-      </c>
-      <c r="H17">
-        <v>1.21146723524741</v>
-      </c>
-      <c r="I17">
-        <v>0.01368142661244707</v>
-      </c>
-      <c r="J17">
-        <v>0.01368142661244707</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.193293610372925</v>
-      </c>
-      <c r="N17">
-        <v>0.193293610372925</v>
-      </c>
-      <c r="O17">
-        <v>0.006637296688573658</v>
-      </c>
-      <c r="P17">
-        <v>0.006637296688573658</v>
-      </c>
-      <c r="Q17">
-        <v>0.2341688757494776</v>
-      </c>
-      <c r="R17">
-        <v>0.2341688757494776</v>
-      </c>
-      <c r="S17">
-        <v>9.080768754975845E-05</v>
-      </c>
-      <c r="T17">
-        <v>9.080768754975845E-05</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.2216945</v>
+      </c>
+      <c r="H20">
+        <v>2.443389</v>
+      </c>
+      <c r="I20">
+        <v>0.01371270573229373</v>
+      </c>
+      <c r="J20">
+        <v>0.01159096359400653</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.03478166666667</v>
+      </c>
+      <c r="N20">
+        <v>30.104345</v>
+      </c>
+      <c r="O20">
+        <v>0.3406915520146654</v>
+      </c>
+      <c r="P20">
+        <v>0.4326738204107166</v>
+      </c>
+      <c r="Q20">
+        <v>12.2594375708675</v>
+      </c>
+      <c r="R20">
+        <v>73.556625425205</v>
+      </c>
+      <c r="S20">
+        <v>0.004671802998255551</v>
+      </c>
+      <c r="T20">
+        <v>0.005015106500460337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.2216945</v>
+      </c>
+      <c r="H21">
+        <v>2.443389</v>
+      </c>
+      <c r="I21">
+        <v>0.01371270573229373</v>
+      </c>
+      <c r="J21">
+        <v>0.01159096359400653</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.197006</v>
+      </c>
+      <c r="N21">
+        <v>0.394012</v>
+      </c>
+      <c r="O21">
+        <v>0.006688564049096684</v>
+      </c>
+      <c r="P21">
+        <v>0.005662925977219145</v>
+      </c>
+      <c r="Q21">
+        <v>0.240681146667</v>
+      </c>
+      <c r="R21">
+        <v>0.962724586668</v>
+      </c>
+      <c r="S21">
+        <v>9.171831057686188E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.563876883750099E-05</v>
       </c>
     </row>
   </sheetData>
